--- a/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>-22,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>-87,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>118,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,08</t>
+          <t>-39,2; -6,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 11,99</t>
+          <t>-5,32; 39,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 8,0</t>
+          <t>-16,39; 30,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 9,05</t>
+          <t>-25,38; 23,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 53,57</t>
+          <t>-100,0; 52,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 94,98</t>
+          <t>-39,1; 790,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 47,05</t>
+          <t>-63,39; 494,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 70,82</t>
+          <t>-65,6; 382,11</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>20,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 4,85</t>
+          <t>-2,6; 11,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 10,53</t>
+          <t>-0,63; 11,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 11,37</t>
+          <t>-3,99; 8,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 11,78</t>
+          <t>-3,08; 9,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 21,97</t>
+          <t>-9,54; 53,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 89,61</t>
+          <t>-2,71; 94,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 81,57</t>
+          <t>-17,91; 47,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 120,87</t>
+          <t>-17,3; 70,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,24</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,48</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-87,61%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>118,07%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>24,67%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,2; -6,36</t>
+          <t>-4,76; 10,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 39,15</t>
+          <t>-3,06; 10,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 30,16</t>
+          <t>-0,37; 13,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 23,15</t>
+          <t>-3,24; 17,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,28</t>
+          <t>-19,82; 68,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 790,83</t>
+          <t>-17,02; 71,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 494,8</t>
+          <t>-2,6; 105,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,6; 382,11</t>
+          <t>-15,13; 106,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>42,35%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 10,83</t>
+          <t>-8,67; 4,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 10,77</t>
+          <t>-2,27; 10,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,02</t>
+          <t>-1,64; 11,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 17,93</t>
+          <t>-1,41; 11,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 68,35</t>
+          <t>-29,8; 21,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 71,48</t>
+          <t>-12,36; 89,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 105,76</t>
+          <t>-8,32; 81,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 106,52</t>
+          <t>-10,13; 120,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,2; -6,36</t>
+          <t>-38,89; -6,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 39,15</t>
+          <t>-4,79; 38,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 30,16</t>
+          <t>-15,03; 28,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,28</t>
+          <t>-100,0; -3,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 790,83</t>
+          <t>-29,96; 1179,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 494,8</t>
+          <t>-65,5; 333,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 16,23</t>
+          <t>-3,24; 15,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 8,49</t>
+          <t>-7,47; 9,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 18,34</t>
+          <t>2,63; 18,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 3,08</t>
+          <t>-19,89; 3,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 83,08</t>
+          <t>-10,29; 86,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 74,85</t>
+          <t>-38,36; 82,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 186,04</t>
+          <t>14,39; 200,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,58; 28,52</t>
+          <t>-67,68; 29,49</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,08</t>
+          <t>-2,25; 11,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 11,99</t>
+          <t>-0,44; 11,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 8,0</t>
+          <t>-4,28; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 9,05</t>
+          <t>-3,01; 9,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 53,57</t>
+          <t>-8,4; 59,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 94,98</t>
+          <t>-3,42; 90,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 47,05</t>
+          <t>-20,41; 45,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 70,82</t>
+          <t>-16,68; 74,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 10,83</t>
+          <t>-4,18; 10,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 10,77</t>
+          <t>-3,66; 11,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,02</t>
+          <t>-0,27; 13,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 17,93</t>
+          <t>-3,57; 17,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 68,35</t>
+          <t>-18,6; 62,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 71,48</t>
+          <t>-17,23; 79,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 105,76</t>
+          <t>-1,4; 116,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 106,52</t>
+          <t>-15,93; 101,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 4,85</t>
+          <t>-8,38; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 10,53</t>
+          <t>-2,26; 10,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 11,37</t>
+          <t>-1,79; 11,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 11,78</t>
+          <t>-0,84; 12,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 21,97</t>
+          <t>-28,86; 24,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 89,61</t>
+          <t>-13,47; 88,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 81,57</t>
+          <t>-9,98; 73,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 120,87</t>
+          <t>-7,6; 129,09</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,31</t>
+          <t>-1,54; 5,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,6</t>
+          <t>1,11; 7,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,27</t>
+          <t>1,9; 8,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,58</t>
+          <t>-0,75; 7,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 24,81</t>
+          <t>-6,45; 26,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 53,47</t>
+          <t>6,59; 52,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,06; 54,03</t>
+          <t>10,44; 56,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 50,18</t>
+          <t>-4,83; 50,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,89; -6,67</t>
+          <t>-41,22; -6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 38,91</t>
+          <t>-4,9; 37,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 28,24</t>
+          <t>-15,28; 31,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 23,15</t>
+          <t>-24,61; 25,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,31</t>
+          <t>-100,0; 1,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 1179,28</t>
+          <t>-38,71; 827,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 333,01</t>
+          <t>-63,56; 449,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,6; 382,11</t>
+          <t>-66,19; 453,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 15,55</t>
+          <t>-2,23; 16,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 9,39</t>
+          <t>-7,18; 8,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 18,64</t>
+          <t>1,55; 17,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 3,03</t>
+          <t>-21,18; 3,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 86,89</t>
+          <t>-9,27; 88,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 82,41</t>
+          <t>-36,83; 68,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 200,62</t>
+          <t>7,01; 192,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,68; 29,49</t>
+          <t>-68,71; 31,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 11,35</t>
+          <t>-2,4; 10,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 11,78</t>
+          <t>-0,72; 11,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 7,59</t>
+          <t>-4,15; 7,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 9,75</t>
+          <t>-2,69; 9,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 59,24</t>
+          <t>-8,5; 53,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 90,14</t>
+          <t>-3,89; 93,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 45,91</t>
+          <t>-18,03; 47,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 74,92</t>
+          <t>-15,93; 77,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 10,23</t>
+          <t>-4,52; 9,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,09</t>
+          <t>-3,11; 11,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 13,62</t>
+          <t>-0,37; 12,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 17,33</t>
+          <t>-3,36; 18,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 62,51</t>
+          <t>-19,91; 61,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 79,71</t>
+          <t>-15,26; 83,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 116,52</t>
+          <t>-2,59; 106,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 101,72</t>
+          <t>-14,92; 104,43</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 6,06</t>
+          <t>-8,25; 5,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,65</t>
+          <t>-1,38; 10,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 11,28</t>
+          <t>-2,25; 11,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 12,12</t>
+          <t>-0,94; 12,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 24,1</t>
+          <t>-27,78; 26,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 88,44</t>
+          <t>-8,48; 94,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 73,88</t>
+          <t>-10,64; 79,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 129,09</t>
+          <t>-9,12; 118,68</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,7</t>
+          <t>-1,49; 5,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,64</t>
+          <t>1,11; 7,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,67</t>
+          <t>1,62; 8,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,63</t>
+          <t>-0,9; 7,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 26,33</t>
+          <t>-5,84; 26,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 52,29</t>
+          <t>5,97; 54,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 56,14</t>
+          <t>9,42; 54,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 50,46</t>
+          <t>-4,65; 54,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP24_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-22,24</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,48</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-87,61%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>118,07%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>-28,55%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,22; -6,68</t>
+          <t>-5,85; 10,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 37,68</t>
+          <t>-4,34; 10,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 31,01</t>
+          <t>1,85; 18,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 25,89</t>
+          <t>-27,51; 3,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,47</t>
+          <t>-21,76; 53,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 827,18</t>
+          <t>-24,67; 83,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 449,71</t>
+          <t>9,68; 174,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 453,64</t>
+          <t>-75,54; 29,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,47%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 16,44</t>
+          <t>-2,6; 11,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 8,34</t>
+          <t>-0,63; 11,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 17,9</t>
+          <t>-3,99; 8,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 3,42</t>
+          <t>-2,18; 13,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 88,93</t>
+          <t>-9,54; 53,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 68,57</t>
+          <t>-2,71; 94,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 192,85</t>
+          <t>-17,91; 47,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 31,7</t>
+          <t>-12,43; 95,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>54,91%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 10,58</t>
+          <t>-4,76; 10,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 11,64</t>
+          <t>-3,06; 10,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 7,87</t>
+          <t>-0,37; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 9,83</t>
+          <t>-1,81; 37,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 53,09</t>
+          <t>-19,82; 68,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 93,01</t>
+          <t>-17,02; 71,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 47,41</t>
+          <t>-2,6; 105,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 77,38</t>
+          <t>-7,04; 229,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>44,14%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 9,83</t>
+          <t>-8,67; 4,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 11,69</t>
+          <t>-2,27; 10,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 12,8</t>
+          <t>-1,64; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 18,38</t>
+          <t>-0,85; 12,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 61,78</t>
+          <t>-29,8; 21,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 83,17</t>
+          <t>-12,36; 89,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 106,76</t>
+          <t>-8,32; 81,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 104,43</t>
+          <t>-6,77; 127,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 5,7</t>
+          <t>-1,94; 5,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 10,95</t>
+          <t>1,23; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 11,06</t>
+          <t>1,6; 8,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 12,31</t>
+          <t>-0,44; 15,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 26,41</t>
+          <t>-7,92; 24,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 94,34</t>
+          <t>7,25; 53,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 79,45</t>
+          <t>9,06; 54,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 118,68</t>
+          <t>-2,62; 101,24</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,16</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,5%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>30,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>18,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 5,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 7,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 8,3</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 7,94</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 26,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 54,73</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 54,5</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 54,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
